--- a/StaticData/__TestStaticData.xlsx
+++ b/StaticData/__TestStaticData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\gitProject\Playground\StaticData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70AFDFF2-295B-4958-A882-47AEE9B161D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7551EBE-DE51-4DFD-ADFF-41C0FAAD5477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22995" yWindow="16770" windowWidth="22695" windowHeight="11430" activeTab="2" xr2:uid="{8EF6EFD5-36D8-4DAA-83AD-49C34620FFDD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="32040" activeTab="4" xr2:uid="{8EF6EFD5-36D8-4DAA-83AD-49C34620FFDD}"/>
   </bookViews>
   <sheets>
     <sheet name="TargetTest" sheetId="6" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="69">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,22 +82,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Note</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Subject</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Grade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>국어</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -183,6 +171,147 @@
   </si>
   <si>
     <t>가장 적은 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value3</t>
+  </si>
+  <si>
+    <t>Value4</t>
+  </si>
+  <si>
+    <t>Value5</t>
+  </si>
+  <si>
+    <t>Subject1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grade1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Subject2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grade2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Subject3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grade3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StudentId1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Subject1_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Subject1_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grade1_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grade1_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Subject1_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grade1_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Note1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StudentId2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Subject2_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grade2_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Subject2_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grade2_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Subject2_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grade2_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Note2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StudentId3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Subject3_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grade3_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Subject3_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grade3_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Subject3_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grade3_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Note3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -776,8 +905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E367DE24-667E-4580-B063-F4ABC87A87AE}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -795,22 +924,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -844,7 +973,7 @@
         <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -881,7 +1010,7 @@
         <v>-41</v>
       </c>
       <c r="H6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -914,7 +1043,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -938,31 +1067,31 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -973,25 +1102,25 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" t="s">
         <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -1002,22 +1131,22 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
-      </c>
       <c r="I4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -1028,13 +1157,13 @@
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1047,42 +1176,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{174543E9-B391-4D37-900C-BEF349A5095A}">
   <dimension ref="A1:AD4"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.125" customWidth="1"/>
-    <col min="4" max="4" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.125" customWidth="1"/>
-    <col min="13" max="13" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.625" customWidth="1"/>
-    <col min="22" max="22" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.375" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.3">
@@ -1095,93 +1224,93 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="M2" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="N2" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="Q2" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="R2" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="S2" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="T2" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="U2" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="V2" t="s">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="W2" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="X2" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="Y2" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="Z2" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="AA2" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="AB2" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="AC2" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="AD2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C3">
         <v>20220101</v>
@@ -1190,25 +1319,25 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="s">
+      <c r="J3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" t="s">
         <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" t="s">
-        <v>18</v>
       </c>
       <c r="L3">
         <v>20220102</v>
@@ -1217,22 +1346,22 @@
         <v>8</v>
       </c>
       <c r="N3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R3" t="s">
         <v>14</v>
       </c>
-      <c r="O3" t="s">
-        <v>19</v>
-      </c>
-      <c r="P3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>20</v>
-      </c>
-      <c r="R3" t="s">
-        <v>17</v>
-      </c>
       <c r="S3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="U3">
         <v>20220103</v>
@@ -1241,93 +1370,93 @@
         <v>9</v>
       </c>
       <c r="W3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="X3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AC3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C4">
         <v>20220201</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" t="s">
-        <v>17</v>
-      </c>
       <c r="J4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="L4">
         <v>20220202</v>
       </c>
       <c r="M4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O4" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>12</v>
+      </c>
+      <c r="T4" t="s">
         <v>26</v>
-      </c>
-      <c r="N4" t="s">
-        <v>14</v>
-      </c>
-      <c r="O4" t="s">
-        <v>15</v>
-      </c>
-      <c r="P4" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>15</v>
-      </c>
-      <c r="T4" t="s">
-        <v>29</v>
       </c>
       <c r="U4">
         <v>20220203</v>
       </c>
       <c r="V4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="W4" t="s">
+        <v>11</v>
+      </c>
+      <c r="X4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA4" t="s">
         <v>14</v>
       </c>
-      <c r="X4" t="s">
+      <c r="AB4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC4" t="s">
         <v>15</v>
       </c>
-      <c r="Y4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>18</v>
-      </c>
       <c r="AD4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
